--- a/problematicas-de-la-educacion-en-nivel-medio/final.txt.xlsx
+++ b/problematicas-de-la-educacion-en-nivel-medio/final.txt.xlsx
@@ -24,7 +24,7 @@
     <t xml:space="preserve">Siglo XIX</t>
   </si>
   <si>
-    <t xml:space="preserve">Modelo del bachillerato francés, nace la escuela secundaria en Argentina</t>
+    <t>tfg</t>
   </si>
   <si>
     <t xml:space="preserve">Principios del siglo XX</t>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="28.5">
+    <row r="2" ht="14.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/problematicas-de-la-educacion-en-nivel-medio/final.txt.xlsx
+++ b/problematicas-de-la-educacion-en-nivel-medio/final.txt.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Momento historico</t>
   </si>
@@ -31,6 +31,27 @@
   </si>
   <si>
     <t xml:space="preserve">Saavedra Lamas presenta propuesta de reforma</t>
+  </si>
+  <si>
+    <t>60s</t>
+  </si>
+  <si>
+    <t>modernizante</t>
+  </si>
+  <si>
+    <t>70s</t>
+  </si>
+  <si>
+    <t>80s</t>
+  </si>
+  <si>
+    <t>democratizante</t>
+  </si>
+  <si>
+    <t>90s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crisis de 2001</t>
   </si>
 </sst>
 </file>
@@ -65,10 +86,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,6 +609,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="19.57421875"/>
     <col customWidth="1" min="2" max="2" width="41.8515625"/>
+    <col customWidth="1" min="3" max="3" width="14.00390625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -609,6 +634,46 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
